--- a/data/trans_orig/P42A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Habitat-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>42357</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32674</v>
+        <v>32219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54579</v>
+        <v>54704</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2125727233604794</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1639775708568535</v>
+        <v>0.1616926092937767</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2739102135043709</v>
+        <v>0.2745371033832605</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>31404</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22294</v>
+        <v>22443</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43083</v>
+        <v>43377</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1576017365868903</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1118837317862937</v>
+        <v>0.1126292574622554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2162144685752128</v>
+        <v>0.2176905406180849</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>51924</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40349</v>
+        <v>39967</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>63998</v>
+        <v>64483</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2605842519359604</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2024927715314721</v>
+        <v>0.2005772516930325</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3211766365779428</v>
+        <v>0.3236102302888868</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>52169</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40921</v>
+        <v>40278</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65151</v>
+        <v>65000</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2618127944503209</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2053626258117529</v>
+        <v>0.2021357366347458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3269630303282167</v>
+        <v>0.3262081950940524</v>
       </c>
     </row>
     <row r="8">
@@ -740,19 +740,19 @@
         <v>21406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13477</v>
+        <v>13936</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30440</v>
+        <v>32168</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.107428493666349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06763366841788092</v>
+        <v>0.06993999235222641</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1527632196656276</v>
+        <v>0.1614376079438672</v>
       </c>
     </row>
     <row r="9">
@@ -802,19 +802,19 @@
         <v>68172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54052</v>
+        <v>54604</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83741</v>
+        <v>83988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2159606887910281</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1712288128800409</v>
+        <v>0.1729782820224476</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2652806034469371</v>
+        <v>0.2660633386320362</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>64523</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51597</v>
+        <v>49268</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79326</v>
+        <v>80253</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2044001083896206</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1634541284783546</v>
+        <v>0.1560752941369231</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2512957993035174</v>
+        <v>0.2542299282955085</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>67693</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53691</v>
+        <v>54339</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83013</v>
+        <v>84349</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2144434159933374</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1700850399201569</v>
+        <v>0.1721402411873075</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2629739518182228</v>
+        <v>0.2672083977260102</v>
       </c>
     </row>
     <row r="13">
@@ -889,19 +889,19 @@
         <v>67489</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54833</v>
+        <v>52869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83370</v>
+        <v>84595</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2137955038482809</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1737027093104851</v>
+        <v>0.1674839119840869</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2641049686805267</v>
+        <v>0.2679849946280933</v>
       </c>
     </row>
     <row r="14">
@@ -918,19 +918,19 @@
         <v>47792</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35642</v>
+        <v>36022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62365</v>
+        <v>62097</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.151400282977733</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1129095382525495</v>
+        <v>0.1141132583661732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1975637708568622</v>
+        <v>0.1967151229762838</v>
       </c>
     </row>
     <row r="15">
@@ -980,19 +980,19 @@
         <v>49720</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39224</v>
+        <v>38517</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63632</v>
+        <v>62884</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2234386057465422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.176271593997246</v>
+        <v>0.1730946654446943</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2859620317886658</v>
+        <v>0.2825989105136454</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>43365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33117</v>
+        <v>32667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>57373</v>
+        <v>56008</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1948810200475621</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1488265837244894</v>
+        <v>0.146805822396098</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2578308240239804</v>
+        <v>0.2516987095492122</v>
       </c>
     </row>
     <row r="18">
@@ -1038,19 +1038,19 @@
         <v>54870</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43030</v>
+        <v>42113</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>69030</v>
+        <v>66953</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2465863833711161</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1933755958944563</v>
+        <v>0.1892544795185328</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3102197380130192</v>
+        <v>0.3008851792417014</v>
       </c>
     </row>
     <row r="19">
@@ -1067,19 +1067,19 @@
         <v>41837</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30733</v>
+        <v>30799</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52039</v>
+        <v>53509</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1880167496598572</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1381154732360517</v>
+        <v>0.1384112535376132</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.23386116803921</v>
+        <v>0.2404680860749534</v>
       </c>
     </row>
     <row r="20">
@@ -1096,19 +1096,19 @@
         <v>32728</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23223</v>
+        <v>23763</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43873</v>
+        <v>44392</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1470772411749225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1043638533595016</v>
+        <v>0.1067907510143211</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1971654793803498</v>
+        <v>0.1994969401483592</v>
       </c>
     </row>
     <row r="21">
@@ -1158,19 +1158,19 @@
         <v>83284</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69478</v>
+        <v>67744</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>102166</v>
+        <v>100062</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2368254788457691</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.197567007396384</v>
+        <v>0.1926377809086766</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2905178770003524</v>
+        <v>0.284536958833192</v>
       </c>
     </row>
     <row r="23">
@@ -1187,19 +1187,19 @@
         <v>65359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52567</v>
+        <v>52224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>80626</v>
+        <v>81127</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1858560989417559</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1494795911674079</v>
+        <v>0.1485043402227394</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2292676925152722</v>
+        <v>0.230693538234808</v>
       </c>
     </row>
     <row r="24">
@@ -1216,19 +1216,19 @@
         <v>78417</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>63702</v>
+        <v>64142</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>94274</v>
+        <v>95331</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2229862250772825</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1811428183316768</v>
+        <v>0.1823950799270949</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2680786130770954</v>
+        <v>0.2710823465349174</v>
       </c>
     </row>
     <row r="25">
@@ -1245,19 +1245,19 @@
         <v>52478</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39772</v>
+        <v>40912</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66005</v>
+        <v>67760</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1492254288550734</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1130957691655967</v>
+        <v>0.1163375532751836</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1876924281875179</v>
+        <v>0.1926829102940568</v>
       </c>
     </row>
     <row r="26">
@@ -1274,19 +1274,19 @@
         <v>72129</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>57710</v>
+        <v>57303</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>87306</v>
+        <v>87059</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2051067682801191</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1641036684367299</v>
+        <v>0.1629460813916248</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2482626503214689</v>
+        <v>0.2475609293952484</v>
       </c>
     </row>
     <row r="27">
@@ -1336,19 +1336,19 @@
         <v>243533</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>213059</v>
+        <v>218962</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>269907</v>
+        <v>272386</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2236057494378264</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1956260292164843</v>
+        <v>0.2010458575576597</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2478223654382526</v>
+        <v>0.2500977936017225</v>
       </c>
     </row>
     <row r="29">
@@ -1365,19 +1365,19 @@
         <v>204651</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>178701</v>
+        <v>178380</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>232849</v>
+        <v>229932</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.187905491912048</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1640791271294593</v>
+        <v>0.1637845663331707</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2137960253236673</v>
+        <v>0.2111176720255953</v>
       </c>
     </row>
     <row r="30">
@@ -1394,19 +1394,19 @@
         <v>252904</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>226864</v>
+        <v>225383</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>280524</v>
+        <v>280929</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2322107671915421</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2083012535456598</v>
+        <v>0.2069410734909823</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2575700178494156</v>
+        <v>0.2579424372001012</v>
       </c>
     </row>
     <row r="31">
@@ -1423,19 +1423,19 @@
         <v>213973</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>186089</v>
+        <v>189253</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>242049</v>
+        <v>241217</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1964644534671008</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1708620159824804</v>
+        <v>0.1737679702142075</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2222434497779749</v>
+        <v>0.2214795663153391</v>
       </c>
     </row>
     <row r="32">
@@ -1452,19 +1452,19 @@
         <v>174055</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>151254</v>
+        <v>150981</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>202901</v>
+        <v>198500</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1598135379914828</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1388779340566831</v>
+        <v>0.1386267893467761</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1862990693324026</v>
+        <v>0.1822578544695352</v>
       </c>
     </row>
     <row r="33">
@@ -1632,19 +1632,19 @@
         <v>73542</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57929</v>
+        <v>58811</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90911</v>
+        <v>90642</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1237430665198997</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09747137797501418</v>
+        <v>0.0989553460403929</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1529673518815206</v>
+        <v>0.1525155303032767</v>
       </c>
     </row>
     <row r="5">
@@ -1661,19 +1661,19 @@
         <v>153571</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>131770</v>
+        <v>132889</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176471</v>
+        <v>177460</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2583997386066804</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2217168389683586</v>
+        <v>0.2235994152781198</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2969314851460413</v>
+        <v>0.2985951953863268</v>
       </c>
     </row>
     <row r="6">
@@ -1690,19 +1690,19 @@
         <v>164167</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>141426</v>
+        <v>140707</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>187646</v>
+        <v>185286</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2762286614020749</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.237963903376144</v>
+        <v>0.236754589532551</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3157343022447854</v>
+        <v>0.3117640049777001</v>
       </c>
     </row>
     <row r="7">
@@ -1719,19 +1719,19 @@
         <v>124062</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>102959</v>
+        <v>104851</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>144081</v>
+        <v>146003</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2087476518876954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1732392824206123</v>
+        <v>0.1764222613961977</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2424309088276326</v>
+        <v>0.2456648002242246</v>
       </c>
     </row>
     <row r="8">
@@ -1748,19 +1748,19 @@
         <v>78973</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63085</v>
+        <v>63710</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>95454</v>
+        <v>97049</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1328808815836496</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1061471877140175</v>
+        <v>0.1071981605382255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1606116242503806</v>
+        <v>0.1632953712326491</v>
       </c>
     </row>
     <row r="9">
@@ -1810,19 +1810,19 @@
         <v>89969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72244</v>
+        <v>70674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110049</v>
+        <v>109294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1034265295891087</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0830506091085273</v>
+        <v>0.08124592139349393</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1265097914249478</v>
+        <v>0.1256422788526265</v>
       </c>
     </row>
     <row r="11">
@@ -1839,19 +1839,19 @@
         <v>179425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>155161</v>
+        <v>157356</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>205620</v>
+        <v>206424</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2062633819032566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.178369826416569</v>
+        <v>0.1808930771214377</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2363769305581096</v>
+        <v>0.2373010773668215</v>
       </c>
     </row>
     <row r="12">
@@ -1868,19 +1868,19 @@
         <v>257403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>228985</v>
+        <v>229961</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>286391</v>
+        <v>286183</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2959053242876657</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2632363391801223</v>
+        <v>0.2643593280807818</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.329229167641109</v>
+        <v>0.3289906806424486</v>
       </c>
     </row>
     <row r="13">
@@ -1897,19 +1897,19 @@
         <v>182209</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>158065</v>
+        <v>158544</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>207720</v>
+        <v>207015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2094636937258499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1817082730890494</v>
+        <v>0.1822587324690569</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2387912589999812</v>
+        <v>0.2379799841350685</v>
       </c>
     </row>
     <row r="14">
@@ -1926,19 +1926,19 @@
         <v>160877</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>138867</v>
+        <v>140106</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>185052</v>
+        <v>185462</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1849410704941191</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1596383866390989</v>
+        <v>0.1610627278183316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2127327587501714</v>
+        <v>0.2132039423979839</v>
       </c>
     </row>
     <row r="15">
@@ -1988,19 +1988,19 @@
         <v>53703</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40001</v>
+        <v>40769</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68746</v>
+        <v>69054</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07721897884907895</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05751710680447587</v>
+        <v>0.05862098350097335</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09884851196843492</v>
+        <v>0.09929146642717805</v>
       </c>
     </row>
     <row r="17">
@@ -2017,19 +2017,19 @@
         <v>151820</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130529</v>
+        <v>130658</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175325</v>
+        <v>175941</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2182981805705308</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1876853971545634</v>
+        <v>0.1878708312391015</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2520962075463076</v>
+        <v>0.252982230878751</v>
       </c>
     </row>
     <row r="18">
@@ -2046,19 +2046,19 @@
         <v>194926</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>172183</v>
+        <v>171821</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>223485</v>
+        <v>221293</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2802795520717565</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.247578882370783</v>
+        <v>0.2470580130222963</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3213435958694232</v>
+        <v>0.3181931862158786</v>
       </c>
     </row>
     <row r="19">
@@ -2075,19 +2075,19 @@
         <v>162454</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>140509</v>
+        <v>139728</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>187547</v>
+        <v>187737</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2335892902856474</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2020344516080741</v>
+        <v>0.2009112719618934</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2696691341179731</v>
+        <v>0.2699432146933795</v>
       </c>
     </row>
     <row r="20">
@@ -2104,19 +2104,19 @@
         <v>132566</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109635</v>
+        <v>109408</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155326</v>
+        <v>154820</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1906139982229864</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1576415602930349</v>
+        <v>0.1573161119321181</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2233401829043319</v>
+        <v>0.2226120546437128</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>112983</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94843</v>
+        <v>95536</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>135390</v>
+        <v>133643</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1224763493592828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1028117025967795</v>
+        <v>0.1035627939480601</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1467656200321623</v>
+        <v>0.1448717325071915</v>
       </c>
     </row>
     <row r="23">
@@ -2195,19 +2195,19 @@
         <v>191263</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>166687</v>
+        <v>169432</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>218252</v>
+        <v>217655</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2073325288517593</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1806920957015891</v>
+        <v>0.1836673201380597</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2365896529410201</v>
+        <v>0.2359422030170934</v>
       </c>
     </row>
     <row r="24">
@@ -2224,19 +2224,19 @@
         <v>297448</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>268273</v>
+        <v>263744</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>324466</v>
+        <v>323860</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3224392937887589</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2908131669891106</v>
+        <v>0.2859032978647826</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3517275026948841</v>
+        <v>0.3510710093213928</v>
       </c>
     </row>
     <row r="25">
@@ -2253,19 +2253,19 @@
         <v>189382</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>164661</v>
+        <v>168618</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>215458</v>
+        <v>216897</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2052939040635205</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1784963278905551</v>
+        <v>0.1827852191090682</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2335613701341145</v>
+        <v>0.2351208925796678</v>
       </c>
     </row>
     <row r="26">
@@ -2282,19 +2282,19 @@
         <v>131416</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>109741</v>
+        <v>111627</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>153825</v>
+        <v>154815</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1424579239366784</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.118960943076835</v>
+        <v>0.1210061972149285</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1667493927691108</v>
+        <v>0.1678225822965356</v>
       </c>
     </row>
     <row r="27">
@@ -2344,19 +2344,19 @@
         <v>330198</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>297421</v>
+        <v>298027</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>362760</v>
+        <v>364463</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1071321161933864</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09649761256214809</v>
+        <v>0.09669411142677206</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1176967057638618</v>
+        <v>0.1182491425858152</v>
       </c>
     </row>
     <row r="29">
@@ -2373,19 +2373,19 @@
         <v>676078</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>629624</v>
+        <v>628721</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>727636</v>
+        <v>726170</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2193521197678285</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2042801094111307</v>
+        <v>0.2039871978651028</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2360800321951792</v>
+        <v>0.2356042934197708</v>
       </c>
     </row>
     <row r="30">
@@ -2402,19 +2402,19 @@
         <v>913943</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>860959</v>
+        <v>860167</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>968451</v>
+        <v>962845</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2965269608970301</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.279336341955127</v>
+        <v>0.2790795618674173</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3142119309487671</v>
+        <v>0.3123931849250232</v>
       </c>
     </row>
     <row r="31">
@@ -2431,19 +2431,19 @@
         <v>658107</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>616310</v>
+        <v>614174</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>711632</v>
+        <v>708124</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2135213857618726</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.199960660168763</v>
+        <v>0.1992676125309082</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2308874645802152</v>
+        <v>0.2297492635114562</v>
       </c>
     </row>
     <row r="32">
@@ -2460,19 +2460,19 @@
         <v>503832</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>459399</v>
+        <v>457238</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>546745</v>
+        <v>546355</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1634674173798825</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1490511700581091</v>
+        <v>0.1483497936600063</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1773903860912801</v>
+        <v>0.1772636565736027</v>
       </c>
     </row>
     <row r="33">
@@ -2640,19 +2640,19 @@
         <v>52024</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39731</v>
+        <v>40175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66618</v>
+        <v>67398</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09400736513340816</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07179301004724829</v>
+        <v>0.072596413512552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.120377997552708</v>
+        <v>0.1217877566371486</v>
       </c>
     </row>
     <row r="5">
@@ -2669,19 +2669,19 @@
         <v>149172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127363</v>
+        <v>128259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169057</v>
+        <v>171398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2695527879168719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2301433903318832</v>
+        <v>0.2317632819948186</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3054854242823462</v>
+        <v>0.3097146015414841</v>
       </c>
     </row>
     <row r="6">
@@ -2698,19 +2698,19 @@
         <v>193387</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>172835</v>
+        <v>172694</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>217061</v>
+        <v>214826</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3494494795168282</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3123111242420784</v>
+        <v>0.3120570660293094</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3922286179157873</v>
+        <v>0.3881901399976063</v>
       </c>
     </row>
     <row r="7">
@@ -2727,19 +2727,19 @@
         <v>74734</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60487</v>
+        <v>59270</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93090</v>
+        <v>90718</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1350442413264969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1092998615578756</v>
+        <v>0.1071005197805154</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1682129571494926</v>
+        <v>0.163927492461635</v>
       </c>
     </row>
     <row r="8">
@@ -2756,19 +2756,19 @@
         <v>84088</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>67076</v>
+        <v>67916</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>103391</v>
+        <v>100880</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1519461261063949</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1212065708808202</v>
+        <v>0.1227243609120316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.186826163647098</v>
+        <v>0.18228928105369</v>
       </c>
     </row>
     <row r="9">
@@ -2818,19 +2818,19 @@
         <v>56314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41477</v>
+        <v>41747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72024</v>
+        <v>73209</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06177432966676812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04549839481447646</v>
+        <v>0.0457949574036615</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07900726208161486</v>
+        <v>0.08030775214739426</v>
       </c>
     </row>
     <row r="11">
@@ -2847,19 +2847,19 @@
         <v>244430</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>217755</v>
+        <v>217136</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>272364</v>
+        <v>274481</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2681303819548076</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2388690460176893</v>
+        <v>0.2381906435662213</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2987727879231544</v>
+        <v>0.3010958484339404</v>
       </c>
     </row>
     <row r="12">
@@ -2876,19 +2876,19 @@
         <v>326921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>298544</v>
+        <v>297049</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>355844</v>
+        <v>358009</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3586199071358128</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.327491838968954</v>
+        <v>0.3258514979673888</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3903481437444348</v>
+        <v>0.3927230350174963</v>
       </c>
     </row>
     <row r="13">
@@ -2905,19 +2905,19 @@
         <v>169279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>146703</v>
+        <v>147718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>193400</v>
+        <v>193472</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1856932733483419</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1609279302145521</v>
+        <v>0.1620411140967469</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2121530187580789</v>
+        <v>0.2122314807270026</v>
       </c>
     </row>
     <row r="14">
@@ -2934,19 +2934,19 @@
         <v>114664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95011</v>
+        <v>93737</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135796</v>
+        <v>135549</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1257821078942696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1042231949778125</v>
+        <v>0.1028260461014434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1489626215839802</v>
+        <v>0.1486917063322111</v>
       </c>
     </row>
     <row r="15">
@@ -2996,19 +2996,19 @@
         <v>66569</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51515</v>
+        <v>51959</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85575</v>
+        <v>84379</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09867342399750388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07635975280129149</v>
+        <v>0.07701790044031408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1268462943439526</v>
+        <v>0.1250725514812157</v>
       </c>
     </row>
     <row r="17">
@@ -3025,19 +3025,19 @@
         <v>118948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99466</v>
+        <v>100179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>141607</v>
+        <v>145365</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1763137456724379</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1474365026900485</v>
+        <v>0.148493105513394</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2099001185199739</v>
+        <v>0.2154708062688526</v>
       </c>
     </row>
     <row r="18">
@@ -3054,19 +3054,19 @@
         <v>274793</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>250800</v>
+        <v>249124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>299375</v>
+        <v>300219</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4073184331663692</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3717548599175653</v>
+        <v>0.3692696372418053</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4437559137442235</v>
+        <v>0.4450072013764262</v>
       </c>
     </row>
     <row r="19">
@@ -3083,19 +3083,19 @@
         <v>139850</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118238</v>
+        <v>118006</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>160754</v>
+        <v>160105</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2072955252181938</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1752615296473606</v>
+        <v>0.1749177153570167</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2382813857264515</v>
+        <v>0.2373187963563511</v>
       </c>
     </row>
     <row r="20">
@@ -3112,19 +3112,19 @@
         <v>74479</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57952</v>
+        <v>58600</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>90373</v>
+        <v>91632</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1103988719454952</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08590144895635966</v>
+        <v>0.08686109143329665</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1339570709843709</v>
+        <v>0.135823714234507</v>
       </c>
     </row>
     <row r="21">
@@ -3174,19 +3174,19 @@
         <v>76995</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60211</v>
+        <v>59639</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96904</v>
+        <v>96553</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08351863184788538</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0653132307975872</v>
+        <v>0.06469239539266584</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1051149713735624</v>
+        <v>0.1047342928812769</v>
       </c>
     </row>
     <row r="23">
@@ -3203,19 +3203,19 @@
         <v>232937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>205198</v>
+        <v>205511</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>257628</v>
+        <v>263945</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2526745178672553</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2225853210379059</v>
+        <v>0.2229244108837672</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2794577937009509</v>
+        <v>0.2863097042971376</v>
       </c>
     </row>
     <row r="24">
@@ -3232,19 +3232,19 @@
         <v>311591</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>279978</v>
+        <v>283985</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>341340</v>
+        <v>343613</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.337993234355816</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3037020788609556</v>
+        <v>0.3080482839143838</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3702633668817802</v>
+        <v>0.3727288151419924</v>
       </c>
     </row>
     <row r="25">
@@ -3261,19 +3261,19 @@
         <v>179812</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>155741</v>
+        <v>157223</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>203618</v>
+        <v>205056</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1950484421037285</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1689371700687782</v>
+        <v>0.1705450450368321</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2208713248431859</v>
+        <v>0.2224309238492414</v>
       </c>
     </row>
     <row r="26">
@@ -3290,19 +3290,19 @@
         <v>120550</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>100475</v>
+        <v>101272</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>141651</v>
+        <v>142616</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1307651738253149</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1089882477828177</v>
+        <v>0.1098527719995289</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1536532143742079</v>
+        <v>0.1547006866872333</v>
       </c>
     </row>
     <row r="27">
@@ -3352,19 +3352,19 @@
         <v>251902</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>222447</v>
+        <v>218569</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>285118</v>
+        <v>281318</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08227946747956678</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07265869987971119</v>
+        <v>0.07139183590683056</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09312887829273776</v>
+        <v>0.09188769782663807</v>
       </c>
     </row>
     <row r="29">
@@ -3381,19 +3381,19 @@
         <v>745487</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>699674</v>
+        <v>697684</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>799706</v>
+        <v>796430</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2435007801341333</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2285368438813383</v>
+        <v>0.227886955409819</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2612107608017628</v>
+        <v>0.2601404947780203</v>
       </c>
     </row>
     <row r="30">
@@ -3410,19 +3410,19 @@
         <v>1106692</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1052178</v>
+        <v>1053070</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1158685</v>
+        <v>1161394</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3614823686558609</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3436762773314881</v>
+        <v>0.3439678908292254</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3784651375663259</v>
+        <v>0.3793499211062945</v>
       </c>
     </row>
     <row r="31">
@@ -3439,19 +3439,19 @@
         <v>563676</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>519469</v>
+        <v>524392</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>609130</v>
+        <v>608549</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1841152038946165</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1696757910370633</v>
+        <v>0.1712839991743548</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1989621420737963</v>
+        <v>0.1987724251272373</v>
       </c>
     </row>
     <row r="32">
@@ -3468,19 +3468,19 @@
         <v>393782</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>356478</v>
+        <v>360078</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>429906</v>
+        <v>433966</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1286221798358224</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1164377490517321</v>
+        <v>0.1176135936108796</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.140421570610855</v>
+        <v>0.1417479016224981</v>
       </c>
     </row>
     <row r="33">
@@ -3648,19 +3648,19 @@
         <v>53264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43339</v>
+        <v>43415</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66473</v>
+        <v>64932</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1205384573706191</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09807798491732646</v>
+        <v>0.09824868746085194</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1504310528672532</v>
+        <v>0.1469439213421665</v>
       </c>
     </row>
     <row r="5">
@@ -3677,19 +3677,19 @@
         <v>149246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>135048</v>
+        <v>135809</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>165968</v>
+        <v>165503</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3377477220002977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3056172024441035</v>
+        <v>0.3073397986737118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.375589804645574</v>
+        <v>0.3745378602865773</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>128722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>112921</v>
+        <v>113686</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>143530</v>
+        <v>143928</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.291302036316125</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2555434865431818</v>
+        <v>0.2572746795966565</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3248117988124242</v>
+        <v>0.325712547849619</v>
       </c>
     </row>
     <row r="7">
@@ -3735,19 +3735,19 @@
         <v>66384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55290</v>
+        <v>53855</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79523</v>
+        <v>79318</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1502281631246867</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1251226902410257</v>
+        <v>0.1218742974587605</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1799630333175806</v>
+        <v>0.1794989098272517</v>
       </c>
     </row>
     <row r="8">
@@ -3764,19 +3764,19 @@
         <v>44270</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34157</v>
+        <v>34567</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56284</v>
+        <v>55209</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1001836211882715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07729716732607651</v>
+        <v>0.07822686774385748</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1273730342525885</v>
+        <v>0.1249389531147215</v>
       </c>
     </row>
     <row r="9">
@@ -3826,19 +3826,19 @@
         <v>80925</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66721</v>
+        <v>67733</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97723</v>
+        <v>97901</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1170247861471986</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09648332690072615</v>
+        <v>0.09794715776944792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1413155247616082</v>
+        <v>0.1415727409679096</v>
       </c>
     </row>
     <row r="11">
@@ -3855,19 +3855,19 @@
         <v>186747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167410</v>
+        <v>169688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>206984</v>
+        <v>205907</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.270052037137847</v>
+        <v>0.2700520371378471</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2420882767051159</v>
+        <v>0.2453832519887896</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2993162886479837</v>
+        <v>0.2977579389345512</v>
       </c>
     </row>
     <row r="12">
@@ -3884,19 +3884,19 @@
         <v>207219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>187321</v>
+        <v>186969</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>228028</v>
+        <v>226199</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2996550117225497</v>
+        <v>0.2996550117225498</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2708816649525287</v>
+        <v>0.2703725720435315</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3297467893684431</v>
+        <v>0.3271023853034534</v>
       </c>
     </row>
     <row r="13">
@@ -3913,19 +3913,19 @@
         <v>144516</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>126532</v>
+        <v>126870</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>163450</v>
+        <v>165433</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2089813174407407</v>
+        <v>0.2089813174407408</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1829761391413117</v>
+        <v>0.1834637202713688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2363622181426513</v>
+        <v>0.2392295838986788</v>
       </c>
     </row>
     <row r="14">
@@ -3942,19 +3942,19 @@
         <v>72117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57701</v>
+        <v>58135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87131</v>
+        <v>87367</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1042868475516638</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08344103290863455</v>
+        <v>0.08406761567596305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1259989752765138</v>
+        <v>0.1263404620906027</v>
       </c>
     </row>
     <row r="15">
@@ -4004,19 +4004,19 @@
         <v>43827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33767</v>
+        <v>34141</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57614</v>
+        <v>55202</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08665379097763296</v>
+        <v>0.08665379097763294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06676359613088338</v>
+        <v>0.06750337130294806</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1139138380720985</v>
+        <v>0.1091449828953473</v>
       </c>
     </row>
     <row r="17">
@@ -4033,19 +4033,19 @@
         <v>170794</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>152723</v>
+        <v>152728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188515</v>
+        <v>190525</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3376937430311641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3019637427429188</v>
+        <v>0.3019734286683048</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3727308865614933</v>
+        <v>0.3767064167895101</v>
       </c>
     </row>
     <row r="18">
@@ -4062,19 +4062,19 @@
         <v>137274</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>120353</v>
+        <v>118202</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>156635</v>
+        <v>156593</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2714188310561709</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2379624280250821</v>
+        <v>0.2337086001139594</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3096993419041195</v>
+        <v>0.3096147793705861</v>
       </c>
     </row>
     <row r="19">
@@ -4091,19 +4091,19 @@
         <v>82313</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67724</v>
+        <v>67274</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97922</v>
+        <v>99165</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1627484204936027</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1339046565228149</v>
+        <v>0.1330145611852285</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1936119635579261</v>
+        <v>0.1960687116282398</v>
       </c>
     </row>
     <row r="20">
@@ -4120,19 +4120,19 @@
         <v>71558</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59114</v>
+        <v>58685</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>88436</v>
+        <v>89330</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1414852144414293</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1168793286024086</v>
+        <v>0.1160328320689413</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.174855623357552</v>
+        <v>0.1766241117022798</v>
       </c>
     </row>
     <row r="21">
@@ -4182,19 +4182,19 @@
         <v>42141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32929</v>
+        <v>31655</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53507</v>
+        <v>53792</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06065754779441021</v>
+        <v>0.0606575477944102</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04739759766739931</v>
+        <v>0.04556334529202193</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07701730271214755</v>
+        <v>0.07742843185780135</v>
       </c>
     </row>
     <row r="23">
@@ -4211,19 +4211,19 @@
         <v>228434</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>207190</v>
+        <v>209010</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>249158</v>
+        <v>249795</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.328806677090164</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2982272701281984</v>
+        <v>0.3008470996428942</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3586365647639717</v>
+        <v>0.3595531480921771</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>168790</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>149820</v>
+        <v>149925</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>189433</v>
+        <v>189899</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2429548977367553</v>
+        <v>0.2429548977367552</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2156496938729327</v>
+        <v>0.2158008719365804</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2726680566046504</v>
+        <v>0.2733397547495124</v>
       </c>
     </row>
     <row r="25">
@@ -4269,19 +4269,19 @@
         <v>151306</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>131928</v>
+        <v>131920</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>168922</v>
+        <v>170902</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2177887148176273</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1898969100055748</v>
+        <v>0.1898853143389498</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2431459132869761</v>
+        <v>0.2459951911927471</v>
       </c>
     </row>
     <row r="26">
@@ -4298,19 +4298,19 @@
         <v>104066</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>87710</v>
+        <v>87887</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>121374</v>
+        <v>120991</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1497921625610432</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1262499196804623</v>
+        <v>0.1265036482381129</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.174705521820632</v>
+        <v>0.1741531495917653</v>
       </c>
     </row>
     <row r="27">
@@ -4360,19 +4360,19 @@
         <v>220157</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>197659</v>
+        <v>196523</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>247337</v>
+        <v>247394</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.0943296855266658</v>
+        <v>0.09432968552666579</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08468990126222016</v>
+        <v>0.0842033166682067</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1059751332744925</v>
+        <v>0.1059996150624868</v>
       </c>
     </row>
     <row r="29">
@@ -4389,19 +4389,19 @@
         <v>735222</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>699977</v>
+        <v>699813</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>772026</v>
+        <v>772572</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3150167358046325</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2999155552650362</v>
+        <v>0.2998453584015212</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3307862497189725</v>
+        <v>0.331019921702254</v>
       </c>
     </row>
     <row r="30">
@@ -4418,19 +4418,19 @@
         <v>642005</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>607301</v>
+        <v>601823</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>678465</v>
+        <v>677065</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2750767011262019</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2602070593647915</v>
+        <v>0.2578598864355015</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2906986625387818</v>
+        <v>0.2900988196474337</v>
       </c>
     </row>
     <row r="31">
@@ -4447,19 +4447,19 @@
         <v>444518</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>414214</v>
+        <v>414078</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>477017</v>
+        <v>478429</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1904603119254628</v>
+        <v>0.1904603119254627</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1774760491180288</v>
+        <v>0.1774178548888052</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2043852762083815</v>
+        <v>0.2049900011774123</v>
       </c>
     </row>
     <row r="32">
@@ -4476,19 +4476,19 @@
         <v>292011</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>266783</v>
+        <v>264903</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>321140</v>
+        <v>322947</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.125116565617037</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.114307298913412</v>
+        <v>0.1135017928199125</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1375971859602055</v>
+        <v>0.1383713095034413</v>
       </c>
     </row>
     <row r="33">
